--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DO MINH DUC\Desktop\Cpp\repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59055D5A-9173-4C4A-8D57-AB81AADF4134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{637C754E-E35B-4F93-913C-943D3BE0E736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
   <si>
     <t>a</t>
   </si>
@@ -49,6 +49,27 @@
   </si>
   <si>
     <t>csc</t>
+  </si>
+  <si>
+    <t>as</t>
+  </si>
+  <si>
+    <t>asax</t>
+  </si>
+  <si>
+    <t>axax</t>
+  </si>
+  <si>
+    <t>xaxs</t>
+  </si>
+  <si>
+    <t>axsa</t>
+  </si>
+  <si>
+    <t>xas</t>
+  </si>
+  <si>
+    <t>axs</t>
   </si>
 </sst>
 </file>
@@ -369,7 +390,7 @@
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -378,6 +399,9 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
@@ -392,12 +416,30 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
       <c r="B2" t="s">
         <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
       </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" t="s">
+        <v>12</v>
+      </c>
       <c r="K2" t="s">
         <v>5</v>
       </c>
@@ -412,6 +454,12 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
       <c r="D3" t="s">
         <v>5</v>
       </c>
@@ -420,6 +468,9 @@
       </c>
       <c r="G3" t="s">
         <v>4</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1</v>
       </c>
       <c r="I3" t="s">
         <v>3</v>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DO MINH DUC\Desktop\Cpp\repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{637C754E-E35B-4F93-913C-943D3BE0E736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D66769-FF4B-43C4-A12B-D405DC23EA51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,51 +25,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="16">
   <si>
     <t>a</t>
   </si>
   <si>
+    <t>asax</t>
+  </si>
+  <si>
+    <t>cas</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>xaxs</t>
+  </si>
+  <si>
     <t>x</t>
   </si>
   <si>
-    <t>cas</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>s</t>
+    <t>as</t>
+  </si>
+  <si>
+    <t>cs</t>
+  </si>
+  <si>
+    <t>xas</t>
+  </si>
+  <si>
+    <t>axs</t>
+  </si>
+  <si>
+    <t>axsa</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
-    <t>cs</t>
+    <t>axax</t>
   </si>
   <si>
     <t>csc</t>
   </si>
   <si>
-    <t>as</t>
-  </si>
-  <si>
-    <t>asax</t>
-  </si>
-  <si>
-    <t>axax</t>
-  </si>
-  <si>
-    <t>xaxs</t>
-  </si>
-  <si>
-    <t>axsa</t>
-  </si>
-  <si>
-    <t>xas</t>
-  </si>
-  <si>
-    <t>axs</t>
+    <t>z</t>
   </si>
 </sst>
 </file>
@@ -390,7 +393,7 @@
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="W3" sqref="W3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -400,16 +403,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
       <c r="G1" t="s">
         <v>3</v>
       </c>
       <c r="H1" t="s">
         <v>3</v>
+      </c>
+      <c r="I1">
+        <v>233</v>
       </c>
       <c r="P1" t="s">
         <v>4</v>
@@ -417,75 +426,78 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>12</v>
       </c>
-      <c r="K2" t="s">
-        <v>5</v>
-      </c>
       <c r="L2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Q2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
         <v>4</v>
       </c>
       <c r="H3" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I3" t="s">
         <v>3</v>
       </c>
       <c r="J3" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M3" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N3" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="O3" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DO MINH DUC\Desktop\Cpp\repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D66769-FF4B-43C4-A12B-D405DC23EA51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16242352-698F-41CA-9408-E84461E566DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
   <si>
     <t>a</t>
   </si>
@@ -73,6 +73,18 @@
   </si>
   <si>
     <t>z</t>
+  </si>
+  <si>
+    <t>ca</t>
+  </si>
+  <si>
+    <t>aca</t>
+  </si>
+  <si>
+    <t>asc</t>
+  </si>
+  <si>
+    <t>sac</t>
   </si>
 </sst>
 </file>
@@ -390,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W3" sqref="W3"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -500,6 +512,22 @@
         <v>6</v>
       </c>
     </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="F6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="G7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DO MINH DUC\Desktop\Cpp\repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16242352-698F-41CA-9408-E84461E566DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B15425E2-E264-4171-B58A-E022E1EA491A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
   <si>
     <t>a</t>
   </si>
@@ -70,21 +70,6 @@
   </si>
   <si>
     <t>csc</t>
-  </si>
-  <si>
-    <t>z</t>
-  </si>
-  <si>
-    <t>ca</t>
-  </si>
-  <si>
-    <t>aca</t>
-  </si>
-  <si>
-    <t>asc</t>
-  </si>
-  <si>
-    <t>sac</t>
   </si>
 </sst>
 </file>
@@ -402,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection sqref="A1:Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -420,17 +405,11 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
       <c r="G1" t="s">
         <v>3</v>
       </c>
       <c r="H1" t="s">
         <v>3</v>
-      </c>
-      <c r="I1">
-        <v>233</v>
       </c>
       <c r="P1" t="s">
         <v>4</v>
@@ -449,9 +428,6 @@
       <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
       <c r="G2" t="s">
         <v>7</v>
       </c>
@@ -510,22 +486,6 @@
       </c>
       <c r="O3" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="G7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
